--- a/src/test/resources/org/nexial/core/model/TestScenarioTest1.data.xlsx
+++ b/src/test/resources/org/nexial/core/model/TestScenarioTest1.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10305"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10422"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B86C16F-927F-8843-8E1F-346BD07C572F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFC7D5-748B-B64B-A72E-CF979CB73AC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>1200</t>
   </si>
@@ -205,6 +205,9 @@
   <si>
     <t>nexial.verbose</t>
   </si>
+  <si>
+    <t>nobody@nowhere.com</t>
+  </si>
 </sst>
 </file>
 
@@ -222,15 +225,18 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1071,7 +1077,7 @@
   <dimension ref="A1:AAA13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4631,7 +4637,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>

--- a/src/test/resources/org/nexial/core/model/TestScenarioTest1.data.xlsx
+++ b/src/test/resources/org/nexial/core/model/TestScenarioTest1.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FFC7D5-748B-B64B-A72E-CF979CB73AC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4369BD-F6DA-0E49-BDA7-4AFDD29FFD56}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>1200</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>mliu@ep.com</t>
   </si>
   <si>
     <t>username</t>
@@ -429,7 +426,45 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1076,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1090,10 +1125,10 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1798,7 +1833,7 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2507,7 +2542,7 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3216,7 +3251,7 @@
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -3925,7 +3960,7 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -4634,10 +4669,10 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -5343,7 +5378,7 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -6052,7 +6087,7 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -6761,10 +6796,10 @@
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -7470,10 +7505,10 @@
     </row>
     <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -8179,7 +8214,7 @@
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
@@ -8888,10 +8923,10 @@
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -10300,23 +10335,23 @@
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A14:BBC1048576 C1:BBC13 A1:B12">
-    <cfRule type="containsBlanks" dxfId="28" priority="28">
+    <cfRule type="containsBlanks" dxfId="31" priority="28">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B1048576 B1:B12">
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A1048576 A1:A12">
-    <cfRule type="beginsWith" dxfId="25" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="28" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="23" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="23" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10330,7 +10365,7 @@
   <dimension ref="A1:AAA21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -10343,7 +10378,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11052,7 +11087,7 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -11761,10 +11796,10 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -12470,7 +12505,7 @@
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -13179,10 +13214,10 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -13888,7 +13923,7 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -14597,14 +14632,14 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
@@ -15310,10 +15345,10 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -16018,7 +16053,7 @@
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -16726,16 +16761,16 @@
     </row>
     <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -17439,10 +17474,10 @@
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -18148,14 +18183,14 @@
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -18859,11 +18894,11 @@
     </row>
     <row r="13" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13"/>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -19568,7 +19603,7 @@
     </row>
     <row r="14" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -20276,16 +20311,16 @@
     </row>
     <row r="15" spans="1:703">
       <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -20988,19 +21023,19 @@
     </row>
     <row r="16" spans="1:703">
       <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -21702,10 +21737,10 @@
     </row>
     <row r="17" spans="1:702">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="3" t="s">
@@ -22412,16 +22447,16 @@
     </row>
     <row r="18" spans="1:702">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -23124,10 +23159,10 @@
     </row>
     <row r="19" spans="1:702">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -23832,10 +23867,10 @@
     </row>
     <row r="20" spans="1:702">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -24540,10 +24575,10 @@
     </row>
     <row r="21" spans="1:702">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -25249,51 +25284,64 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A22:BBC1048576 F1:BBC21">
-    <cfRule type="containsBlanks" dxfId="23" priority="12">
+    <cfRule type="containsBlanks" dxfId="26" priority="15">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B1048576">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="23" priority="10" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A22,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="22" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A22,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E12 A14:E21 A13 C13:E13">
-    <cfRule type="containsBlanks" dxfId="17" priority="6">
+  <conditionalFormatting sqref="A1:E4 A14:E21 A13 C13:E13 A6:E12 A5 C5:E5">
+    <cfRule type="containsBlanks" dxfId="20" priority="9">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B12 B14:B21 C13">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B4 B14:B21 C13 B6:B12">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="3" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="16" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25305,7 +25353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AAA5"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -25319,14 +25367,14 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1"/>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -26030,10 +26078,10 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -26739,11 +26787,11 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -27448,13 +27496,13 @@
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -28159,14 +28207,14 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -28870,50 +28918,50 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A6:BBC1048576 E1:BBC5">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="14" priority="12">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B1048576">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="11" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A6,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="10" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A6,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D5">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B5">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="4" priority="3" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/resources/org/nexial/core/model/TestScenarioTest1.data.xlsx
+++ b/src/test/resources/org/nexial/core/model/TestScenarioTest1.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4369BD-F6DA-0E49-BDA7-4AFDD29FFD56}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B3B1A-419C-4B45-B8AD-2A027E0D59C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>1200</t>
   </si>
@@ -140,9 +140,6 @@
     <t>|</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>johnny@bgood.com</t>
   </si>
   <si>
@@ -168,12 +165,6 @@
   </si>
   <si>
     <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.scope.executionMode</t>
-  </si>
-  <si>
-    <t>nexial.scope.mailTo</t>
   </si>
   <si>
     <t>nexial.scope.iteration</t>
@@ -426,45 +417,7 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b/>
@@ -625,8 +578,8 @@
         <color theme="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,7 +587,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <strike val="0"/>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -645,13 +597,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <strike val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1111,9 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1125,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>33</v>
@@ -1833,7 +1784,7 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2542,7 +2493,7 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3960,7 +3911,7 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -4669,10 +4620,10 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -5378,7 +5329,7 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -6087,7 +6038,7 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -10335,23 +10286,23 @@
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A14:BBC1048576 C1:BBC13 A1:B12">
-    <cfRule type="containsBlanks" dxfId="31" priority="28">
+    <cfRule type="containsBlanks" dxfId="28" priority="28">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B1048576 B1:B12">
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A1048576 A1:A12">
-    <cfRule type="beginsWith" dxfId="28" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="25" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="23" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10362,10 +10313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AAA21"/>
+  <dimension ref="A1:AAA20"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -10378,7 +10329,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11087,7 +11038,7 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -11796,10 +11747,10 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -12505,10 +12456,10 @@
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -13214,10 +13165,10 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -13926,11 +13877,15 @@
         <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -14635,15 +14590,11 @@
         <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -14847,7 +14798,7 @@
       <c r="GX7"/>
       <c r="GY7"/>
       <c r="GZ7"/>
-      <c r="HA7" s="4"/>
+      <c r="HA7"/>
       <c r="HB7"/>
       <c r="HC7"/>
       <c r="HD7"/>
@@ -15341,14 +15292,13 @@
       <c r="ZX7"/>
       <c r="ZY7"/>
       <c r="ZZ7"/>
-      <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -16053,13 +16003,17 @@
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -16264,7 +16218,7 @@
       <c r="GX9"/>
       <c r="GY9"/>
       <c r="GZ9"/>
-      <c r="HA9"/>
+      <c r="HA9" s="4"/>
       <c r="HB9"/>
       <c r="HC9"/>
       <c r="HD9"/>
@@ -16758,20 +16712,17 @@
       <c r="ZX9"/>
       <c r="ZY9"/>
       <c r="ZZ9"/>
+      <c r="AAA9" s="5"/>
     </row>
     <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -17474,13 +17425,15 @@
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11"/>
-      <c r="D11"/>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -18183,15 +18136,13 @@
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
+      <c r="B12"/>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -18894,12 +18845,12 @@
     </row>
     <row r="13" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="B13"/>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
       </c>
+      <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -19105,7 +19056,7 @@
       <c r="GX13"/>
       <c r="GY13"/>
       <c r="GZ13"/>
-      <c r="HA13" s="4"/>
+      <c r="HA13"/>
       <c r="HB13"/>
       <c r="HC13"/>
       <c r="HD13"/>
@@ -19599,17 +19550,20 @@
       <c r="ZX13"/>
       <c r="ZY13"/>
       <c r="ZZ13"/>
-      <c r="AAA13" s="5"/>
     </row>
     <row r="14" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -20311,18 +20265,20 @@
     </row>
     <row r="15" spans="1:703">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -21023,20 +20979,16 @@
     </row>
     <row r="16" spans="1:703">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
+      <c r="C16"/>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -21737,14 +21689,16 @@
     </row>
     <row r="17" spans="1:702">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -22447,17 +22401,13 @@
     </row>
     <row r="18" spans="1:702">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -23159,10 +23109,10 @@
     </row>
     <row r="19" spans="1:702">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -23867,10 +23817,10 @@
     </row>
     <row r="20" spans="1:702">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -24573,774 +24523,55 @@
       <c r="ZY20"/>
       <c r="ZZ20"/>
     </row>
-    <row r="21" spans="1:702">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
-      <c r="AL21"/>
-      <c r="AM21"/>
-      <c r="AN21"/>
-      <c r="AO21"/>
-      <c r="AP21"/>
-      <c r="AQ21"/>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21"/>
-      <c r="AX21"/>
-      <c r="AY21"/>
-      <c r="AZ21"/>
-      <c r="BA21"/>
-      <c r="BB21"/>
-      <c r="BC21"/>
-      <c r="BD21"/>
-      <c r="BE21"/>
-      <c r="BF21"/>
-      <c r="BG21"/>
-      <c r="BH21"/>
-      <c r="BI21"/>
-      <c r="BJ21"/>
-      <c r="BK21"/>
-      <c r="BL21"/>
-      <c r="BM21"/>
-      <c r="BN21"/>
-      <c r="BO21"/>
-      <c r="BP21"/>
-      <c r="BQ21"/>
-      <c r="BR21"/>
-      <c r="BS21"/>
-      <c r="BT21"/>
-      <c r="BU21"/>
-      <c r="BV21"/>
-      <c r="BW21"/>
-      <c r="BX21"/>
-      <c r="BY21"/>
-      <c r="BZ21"/>
-      <c r="CA21"/>
-      <c r="CB21"/>
-      <c r="CC21"/>
-      <c r="CD21"/>
-      <c r="CE21"/>
-      <c r="CF21"/>
-      <c r="CG21"/>
-      <c r="CH21"/>
-      <c r="CI21"/>
-      <c r="CJ21"/>
-      <c r="CK21"/>
-      <c r="CL21"/>
-      <c r="CM21"/>
-      <c r="CN21"/>
-      <c r="CO21"/>
-      <c r="CP21"/>
-      <c r="CQ21"/>
-      <c r="CR21"/>
-      <c r="CS21"/>
-      <c r="CT21"/>
-      <c r="CU21"/>
-      <c r="CV21"/>
-      <c r="CW21"/>
-      <c r="CX21"/>
-      <c r="CY21"/>
-      <c r="CZ21"/>
-      <c r="DA21"/>
-      <c r="DB21"/>
-      <c r="DC21"/>
-      <c r="DD21"/>
-      <c r="DE21"/>
-      <c r="DF21"/>
-      <c r="DG21"/>
-      <c r="DH21"/>
-      <c r="DI21"/>
-      <c r="DJ21"/>
-      <c r="DK21"/>
-      <c r="DL21"/>
-      <c r="DM21"/>
-      <c r="DN21"/>
-      <c r="DO21"/>
-      <c r="DP21"/>
-      <c r="DQ21"/>
-      <c r="DR21"/>
-      <c r="DS21"/>
-      <c r="DT21"/>
-      <c r="DU21"/>
-      <c r="DV21"/>
-      <c r="DW21"/>
-      <c r="DX21"/>
-      <c r="DY21"/>
-      <c r="DZ21"/>
-      <c r="EA21"/>
-      <c r="EB21"/>
-      <c r="EC21"/>
-      <c r="ED21"/>
-      <c r="EE21"/>
-      <c r="EF21"/>
-      <c r="EG21"/>
-      <c r="EH21"/>
-      <c r="EI21"/>
-      <c r="EJ21"/>
-      <c r="EK21"/>
-      <c r="EL21"/>
-      <c r="EM21"/>
-      <c r="EN21"/>
-      <c r="EO21"/>
-      <c r="EP21"/>
-      <c r="EQ21"/>
-      <c r="ER21"/>
-      <c r="ES21"/>
-      <c r="ET21"/>
-      <c r="EU21"/>
-      <c r="EV21"/>
-      <c r="EW21"/>
-      <c r="EX21"/>
-      <c r="EY21"/>
-      <c r="EZ21"/>
-      <c r="FA21"/>
-      <c r="FB21"/>
-      <c r="FC21"/>
-      <c r="FD21"/>
-      <c r="FE21"/>
-      <c r="FF21"/>
-      <c r="FG21"/>
-      <c r="FH21"/>
-      <c r="FI21"/>
-      <c r="FJ21"/>
-      <c r="FK21"/>
-      <c r="FL21"/>
-      <c r="FM21"/>
-      <c r="FN21"/>
-      <c r="FO21"/>
-      <c r="FP21"/>
-      <c r="FQ21"/>
-      <c r="FR21"/>
-      <c r="FS21"/>
-      <c r="FT21"/>
-      <c r="FU21"/>
-      <c r="FV21"/>
-      <c r="FW21"/>
-      <c r="FX21"/>
-      <c r="FY21"/>
-      <c r="FZ21"/>
-      <c r="GA21"/>
-      <c r="GB21"/>
-      <c r="GC21"/>
-      <c r="GD21"/>
-      <c r="GE21"/>
-      <c r="GF21"/>
-      <c r="GG21"/>
-      <c r="GH21"/>
-      <c r="GI21"/>
-      <c r="GJ21"/>
-      <c r="GK21"/>
-      <c r="GL21"/>
-      <c r="GM21"/>
-      <c r="GN21"/>
-      <c r="GO21"/>
-      <c r="GP21"/>
-      <c r="GQ21"/>
-      <c r="GR21"/>
-      <c r="GS21"/>
-      <c r="GT21"/>
-      <c r="GU21"/>
-      <c r="GV21"/>
-      <c r="GW21"/>
-      <c r="GX21"/>
-      <c r="GY21"/>
-      <c r="GZ21"/>
-      <c r="HA21"/>
-      <c r="HB21"/>
-      <c r="HC21"/>
-      <c r="HD21"/>
-      <c r="HE21"/>
-      <c r="HF21"/>
-      <c r="HG21"/>
-      <c r="HH21"/>
-      <c r="HI21"/>
-      <c r="HJ21"/>
-      <c r="HK21"/>
-      <c r="HL21"/>
-      <c r="HM21"/>
-      <c r="HN21"/>
-      <c r="HO21"/>
-      <c r="HP21"/>
-      <c r="HQ21"/>
-      <c r="HR21"/>
-      <c r="HS21"/>
-      <c r="HT21"/>
-      <c r="HU21"/>
-      <c r="HV21"/>
-      <c r="HW21"/>
-      <c r="HX21"/>
-      <c r="HY21"/>
-      <c r="HZ21"/>
-      <c r="IA21"/>
-      <c r="IB21"/>
-      <c r="IC21"/>
-      <c r="ID21"/>
-      <c r="IE21"/>
-      <c r="IF21"/>
-      <c r="IG21"/>
-      <c r="IH21"/>
-      <c r="II21"/>
-      <c r="IJ21"/>
-      <c r="IK21"/>
-      <c r="IL21"/>
-      <c r="IM21"/>
-      <c r="IN21"/>
-      <c r="IO21"/>
-      <c r="IP21"/>
-      <c r="IQ21"/>
-      <c r="IR21"/>
-      <c r="IS21"/>
-      <c r="IT21"/>
-      <c r="IU21"/>
-      <c r="IV21"/>
-      <c r="IW21"/>
-      <c r="IX21"/>
-      <c r="IY21"/>
-      <c r="IZ21"/>
-      <c r="JA21"/>
-      <c r="JB21"/>
-      <c r="JC21"/>
-      <c r="JD21"/>
-      <c r="JE21"/>
-      <c r="JF21"/>
-      <c r="JG21"/>
-      <c r="JH21"/>
-      <c r="JI21"/>
-      <c r="JJ21"/>
-      <c r="JK21"/>
-      <c r="JL21"/>
-      <c r="JM21"/>
-      <c r="JN21"/>
-      <c r="JO21"/>
-      <c r="JP21"/>
-      <c r="JQ21"/>
-      <c r="JR21"/>
-      <c r="JS21"/>
-      <c r="JT21"/>
-      <c r="JU21"/>
-      <c r="JV21"/>
-      <c r="JW21"/>
-      <c r="JX21"/>
-      <c r="JY21"/>
-      <c r="JZ21"/>
-      <c r="KA21"/>
-      <c r="KB21"/>
-      <c r="KC21"/>
-      <c r="KD21"/>
-      <c r="KE21"/>
-      <c r="KF21"/>
-      <c r="KG21"/>
-      <c r="KH21"/>
-      <c r="KI21"/>
-      <c r="KJ21"/>
-      <c r="KK21"/>
-      <c r="KL21"/>
-      <c r="KM21"/>
-      <c r="KN21"/>
-      <c r="KO21"/>
-      <c r="KP21"/>
-      <c r="KQ21"/>
-      <c r="KR21"/>
-      <c r="KS21"/>
-      <c r="KT21"/>
-      <c r="KU21"/>
-      <c r="KV21"/>
-      <c r="KW21"/>
-      <c r="KX21"/>
-      <c r="KY21"/>
-      <c r="KZ21"/>
-      <c r="LA21"/>
-      <c r="LB21"/>
-      <c r="LC21"/>
-      <c r="LD21"/>
-      <c r="LE21"/>
-      <c r="LF21"/>
-      <c r="LG21"/>
-      <c r="LH21"/>
-      <c r="LI21"/>
-      <c r="LJ21"/>
-      <c r="LK21"/>
-      <c r="LL21"/>
-      <c r="LM21"/>
-      <c r="LN21"/>
-      <c r="LO21"/>
-      <c r="LP21"/>
-      <c r="LQ21"/>
-      <c r="LR21"/>
-      <c r="LS21"/>
-      <c r="LT21"/>
-      <c r="LU21"/>
-      <c r="LV21"/>
-      <c r="LW21"/>
-      <c r="LX21"/>
-      <c r="LY21"/>
-      <c r="LZ21"/>
-      <c r="MA21"/>
-      <c r="MB21"/>
-      <c r="MC21"/>
-      <c r="MD21"/>
-      <c r="ME21"/>
-      <c r="MF21"/>
-      <c r="MG21"/>
-      <c r="MH21"/>
-      <c r="MI21"/>
-      <c r="MJ21"/>
-      <c r="MK21"/>
-      <c r="ML21"/>
-      <c r="MM21"/>
-      <c r="MN21"/>
-      <c r="MO21"/>
-      <c r="MP21"/>
-      <c r="MQ21"/>
-      <c r="MR21"/>
-      <c r="MS21"/>
-      <c r="MT21"/>
-      <c r="MU21"/>
-      <c r="MV21"/>
-      <c r="MW21"/>
-      <c r="MX21"/>
-      <c r="MY21"/>
-      <c r="MZ21"/>
-      <c r="NA21"/>
-      <c r="NB21"/>
-      <c r="NC21"/>
-      <c r="ND21"/>
-      <c r="NE21"/>
-      <c r="NF21"/>
-      <c r="NG21"/>
-      <c r="NH21"/>
-      <c r="NI21"/>
-      <c r="NJ21"/>
-      <c r="NK21"/>
-      <c r="NL21"/>
-      <c r="NM21"/>
-      <c r="NN21"/>
-      <c r="NO21"/>
-      <c r="NP21"/>
-      <c r="NQ21"/>
-      <c r="NR21"/>
-      <c r="NS21"/>
-      <c r="NT21"/>
-      <c r="NU21"/>
-      <c r="NV21"/>
-      <c r="NW21"/>
-      <c r="NX21"/>
-      <c r="NY21"/>
-      <c r="NZ21"/>
-      <c r="OA21"/>
-      <c r="OB21"/>
-      <c r="OC21"/>
-      <c r="OD21"/>
-      <c r="OE21"/>
-      <c r="OF21"/>
-      <c r="OG21"/>
-      <c r="OH21"/>
-      <c r="OI21"/>
-      <c r="OJ21"/>
-      <c r="OK21"/>
-      <c r="OL21"/>
-      <c r="OM21"/>
-      <c r="ON21"/>
-      <c r="OO21"/>
-      <c r="OP21"/>
-      <c r="OQ21"/>
-      <c r="OR21"/>
-      <c r="OS21"/>
-      <c r="OT21"/>
-      <c r="OU21"/>
-      <c r="OV21"/>
-      <c r="OW21"/>
-      <c r="OX21"/>
-      <c r="OY21"/>
-      <c r="OZ21"/>
-      <c r="PA21"/>
-      <c r="PB21"/>
-      <c r="PC21"/>
-      <c r="PD21"/>
-      <c r="PE21"/>
-      <c r="PF21"/>
-      <c r="PG21"/>
-      <c r="PH21"/>
-      <c r="PI21"/>
-      <c r="PJ21"/>
-      <c r="PK21"/>
-      <c r="PL21"/>
-      <c r="PM21"/>
-      <c r="PN21"/>
-      <c r="PO21"/>
-      <c r="PP21"/>
-      <c r="PQ21"/>
-      <c r="PR21"/>
-      <c r="PS21"/>
-      <c r="PT21"/>
-      <c r="PU21"/>
-      <c r="PV21"/>
-      <c r="PW21"/>
-      <c r="PX21"/>
-      <c r="PY21"/>
-      <c r="PZ21"/>
-      <c r="QA21"/>
-      <c r="QB21"/>
-      <c r="QC21"/>
-      <c r="QD21"/>
-      <c r="QE21"/>
-      <c r="QF21"/>
-      <c r="QG21"/>
-      <c r="QH21"/>
-      <c r="QI21"/>
-      <c r="QJ21"/>
-      <c r="QK21"/>
-      <c r="QL21"/>
-      <c r="QM21"/>
-      <c r="QN21"/>
-      <c r="QO21"/>
-      <c r="QP21"/>
-      <c r="QQ21"/>
-      <c r="QR21"/>
-      <c r="QS21"/>
-      <c r="QT21"/>
-      <c r="QU21"/>
-      <c r="QV21"/>
-      <c r="QW21"/>
-      <c r="QX21"/>
-      <c r="QY21"/>
-      <c r="QZ21"/>
-      <c r="RA21"/>
-      <c r="RB21"/>
-      <c r="RC21"/>
-      <c r="RD21"/>
-      <c r="RE21"/>
-      <c r="RF21"/>
-      <c r="RG21"/>
-      <c r="RH21"/>
-      <c r="RI21"/>
-      <c r="RJ21"/>
-      <c r="RK21"/>
-      <c r="RL21"/>
-      <c r="RM21"/>
-      <c r="RN21"/>
-      <c r="RO21"/>
-      <c r="RP21"/>
-      <c r="RQ21"/>
-      <c r="RR21"/>
-      <c r="RS21"/>
-      <c r="RT21"/>
-      <c r="RU21"/>
-      <c r="RV21"/>
-      <c r="RW21"/>
-      <c r="RX21"/>
-      <c r="RY21"/>
-      <c r="RZ21"/>
-      <c r="SA21"/>
-      <c r="SB21"/>
-      <c r="SC21"/>
-      <c r="SD21"/>
-      <c r="SE21"/>
-      <c r="SF21"/>
-      <c r="SG21"/>
-      <c r="SH21"/>
-      <c r="SI21"/>
-      <c r="SJ21"/>
-      <c r="SK21"/>
-      <c r="SL21"/>
-      <c r="SM21"/>
-      <c r="SN21"/>
-      <c r="SO21"/>
-      <c r="SP21"/>
-      <c r="SQ21"/>
-      <c r="SR21"/>
-      <c r="SS21"/>
-      <c r="ST21"/>
-      <c r="SU21"/>
-      <c r="SV21"/>
-      <c r="SW21"/>
-      <c r="SX21"/>
-      <c r="SY21"/>
-      <c r="SZ21"/>
-      <c r="TA21"/>
-      <c r="TB21"/>
-      <c r="TC21"/>
-      <c r="TD21"/>
-      <c r="TE21"/>
-      <c r="TF21"/>
-      <c r="TG21"/>
-      <c r="TH21"/>
-      <c r="TI21"/>
-      <c r="TJ21"/>
-      <c r="TK21"/>
-      <c r="TL21"/>
-      <c r="TM21"/>
-      <c r="TN21"/>
-      <c r="TO21"/>
-      <c r="TP21"/>
-      <c r="TQ21"/>
-      <c r="TR21"/>
-      <c r="TS21"/>
-      <c r="TT21"/>
-      <c r="TU21"/>
-      <c r="TV21"/>
-      <c r="TW21"/>
-      <c r="TX21"/>
-      <c r="TY21"/>
-      <c r="TZ21"/>
-      <c r="UA21"/>
-      <c r="UB21"/>
-      <c r="UC21"/>
-      <c r="UD21"/>
-      <c r="UE21"/>
-      <c r="UF21"/>
-      <c r="UG21"/>
-      <c r="UH21"/>
-      <c r="UI21"/>
-      <c r="UJ21"/>
-      <c r="UK21"/>
-      <c r="UL21"/>
-      <c r="UM21"/>
-      <c r="UN21"/>
-      <c r="UO21"/>
-      <c r="UP21"/>
-      <c r="UQ21"/>
-      <c r="UR21"/>
-      <c r="US21"/>
-      <c r="UT21"/>
-      <c r="UU21"/>
-      <c r="UV21"/>
-      <c r="UW21"/>
-      <c r="UX21"/>
-      <c r="UY21"/>
-      <c r="UZ21"/>
-      <c r="VA21"/>
-      <c r="VB21"/>
-      <c r="VC21"/>
-      <c r="VD21"/>
-      <c r="VE21"/>
-      <c r="VF21"/>
-      <c r="VG21"/>
-      <c r="VH21"/>
-      <c r="VI21"/>
-      <c r="VJ21"/>
-      <c r="VK21"/>
-      <c r="VL21"/>
-      <c r="VM21"/>
-      <c r="VN21"/>
-      <c r="VO21"/>
-      <c r="VP21"/>
-      <c r="VQ21"/>
-      <c r="VR21"/>
-      <c r="VS21"/>
-      <c r="VT21"/>
-      <c r="VU21"/>
-      <c r="VV21"/>
-      <c r="VW21"/>
-      <c r="VX21"/>
-      <c r="VY21"/>
-      <c r="VZ21"/>
-      <c r="WA21"/>
-      <c r="WB21"/>
-      <c r="WC21"/>
-      <c r="WD21"/>
-      <c r="WE21"/>
-      <c r="WF21"/>
-      <c r="WG21"/>
-      <c r="WH21"/>
-      <c r="WI21"/>
-      <c r="WJ21"/>
-      <c r="WK21"/>
-      <c r="WL21"/>
-      <c r="WM21"/>
-      <c r="WN21"/>
-      <c r="WO21"/>
-      <c r="WP21"/>
-      <c r="WQ21"/>
-      <c r="WR21"/>
-      <c r="WS21"/>
-      <c r="WT21"/>
-      <c r="WU21"/>
-      <c r="WV21"/>
-      <c r="WW21"/>
-      <c r="WX21"/>
-      <c r="WY21"/>
-      <c r="WZ21"/>
-      <c r="XA21"/>
-      <c r="XB21"/>
-      <c r="XC21"/>
-      <c r="XD21"/>
-      <c r="XE21"/>
-      <c r="XF21"/>
-      <c r="XG21"/>
-      <c r="XH21"/>
-      <c r="XI21"/>
-      <c r="XJ21"/>
-      <c r="XK21"/>
-      <c r="XL21"/>
-      <c r="XM21"/>
-      <c r="XN21"/>
-      <c r="XO21"/>
-      <c r="XP21"/>
-      <c r="XQ21"/>
-      <c r="XR21"/>
-      <c r="XS21"/>
-      <c r="XT21"/>
-      <c r="XU21"/>
-      <c r="XV21"/>
-      <c r="XW21"/>
-      <c r="XX21"/>
-      <c r="XY21"/>
-      <c r="XZ21"/>
-      <c r="YA21"/>
-      <c r="YB21"/>
-      <c r="YC21"/>
-      <c r="YD21"/>
-      <c r="YE21"/>
-      <c r="YF21"/>
-      <c r="YG21"/>
-      <c r="YH21"/>
-      <c r="YI21"/>
-      <c r="YJ21"/>
-      <c r="YK21"/>
-      <c r="YL21"/>
-      <c r="YM21"/>
-      <c r="YN21"/>
-      <c r="YO21"/>
-      <c r="YP21"/>
-      <c r="YQ21"/>
-      <c r="YR21"/>
-      <c r="YS21"/>
-      <c r="YT21"/>
-      <c r="YU21"/>
-      <c r="YV21"/>
-      <c r="YW21"/>
-      <c r="YX21"/>
-      <c r="YY21"/>
-      <c r="YZ21"/>
-      <c r="ZA21"/>
-      <c r="ZB21"/>
-      <c r="ZC21"/>
-      <c r="ZD21"/>
-      <c r="ZE21"/>
-      <c r="ZF21"/>
-      <c r="ZG21"/>
-      <c r="ZH21"/>
-      <c r="ZI21"/>
-      <c r="ZJ21"/>
-      <c r="ZK21"/>
-      <c r="ZL21"/>
-      <c r="ZM21"/>
-      <c r="ZN21"/>
-      <c r="ZO21"/>
-      <c r="ZP21"/>
-      <c r="ZQ21"/>
-      <c r="ZR21"/>
-      <c r="ZS21"/>
-      <c r="ZT21"/>
-      <c r="ZU21"/>
-      <c r="ZV21"/>
-      <c r="ZW21"/>
-      <c r="ZX21"/>
-      <c r="ZY21"/>
-      <c r="ZZ21"/>
-    </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A22:BBC1048576 F1:BBC21">
-    <cfRule type="containsBlanks" dxfId="26" priority="15">
+  <conditionalFormatting sqref="A21:BBC1048576 F1:BBC20 A1:E3">
+    <cfRule type="containsBlanks" dxfId="23" priority="15">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B1048576">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="B21:B1048576 B1:B3">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A1048576">
-    <cfRule type="beginsWith" dxfId="23" priority="10" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A22,LEN("sentry.scope."))="sentry.scope."</formula>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="20" priority="10" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A22,LEN("sentry."))="sentry."</formula>
+    <cfRule type="beginsWith" dxfId="19" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="21" priority="13" stopIfTrue="1">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="18" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E4 A14:E21 A13 C13:E13 A6:E12 A5 C5:E5">
-    <cfRule type="containsBlanks" dxfId="20" priority="9">
-      <formula>LEN(TRIM(A1))=0</formula>
+  <conditionalFormatting sqref="A13:E20 A12 C12:E12 A5:E11 A4 C4:E4">
+    <cfRule type="containsBlanks" dxfId="17" priority="9">
+      <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4 B14:B21 C13 B6:B12">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="B13:B20 C12 B5:B11">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A21">
-    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="7" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
+      <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25353,8 +24584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AAA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -25367,14 +24598,14 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1"/>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -26078,10 +25309,10 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -26791,7 +26022,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -28207,14 +27438,14 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -28918,50 +28149,50 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A6:BBC1048576 E1:BBC5">
-    <cfRule type="containsBlanks" dxfId="14" priority="12">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B1048576">
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A6,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="7" priority="9" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A6,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(A6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D5">
-    <cfRule type="containsBlanks" dxfId="8" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B5">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1) = "sentry.scope"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A5">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="3" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
